--- a/Results/compiled_graphs.xlsx
+++ b/Results/compiled_graphs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A07FFF-E2A8-43CA-B2CD-98C7A3E2D002}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +16,8 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -391,7 +394,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7886-49F8-84B6-9DDB1D1E3117}"/>
             </c:ext>
@@ -487,7 +490,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7886-49F8-84B6-9DDB1D1E3117}"/>
             </c:ext>
@@ -800,12 +803,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -844,7 +847,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1537,6 +1539,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19F9-4D56-9D33-9B5E0FDA413D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1597,7 +1604,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1716,7 +1722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1833,7 +1838,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1877,7 +1882,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2028,6 +2032,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BFA-45C0-8B81-FB6D9150F793}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2147,6 +2156,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BFA-45C0-8B81-FB6D9150F793}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2212,7 +2226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2332,7 +2345,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2413,7 +2425,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2481,7 +2492,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2525,7 +2536,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2730,6 +2740,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6A7-4D86-8EE8-776B70C4F3A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2900,6 +2915,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6A7-4D86-8EE8-776B70C4F3A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2960,7 +2980,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3078,7 +3097,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3159,7 +3177,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3226,8 +3243,2241 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>News Headlines</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> dataset bag-of-words with Naive Bayes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Multinomial NB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[6]bow_nb_updated_params!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[6]bow_nb_updated_params!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.742079903370226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74541438845103503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74866702093622794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75078536636478999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75256645596014504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75442082750473605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75590611413020703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.757417264659621</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75821120612515602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75941259838169295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75999310474373105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76044826423997203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.760906578348438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76154999830609305</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76209373736225605</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76230963642462402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76274248514688703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76288397994210799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76339848935913401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76419160210698001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76444313486278603</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.76482639474134995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.765269657285783</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76596019027030504</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76624604793500195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76657687819503695</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76696311286391095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.767162845967294</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76720729498825502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.767412376482838</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76757504085153205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76777760980071597</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76773738945624503</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76781504670300105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76781544266982504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76784785496200902</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76800368972502298</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76823401768086597</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76828703822701405</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76820026721255896</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76818035924988903</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76846146029817097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76825289656884599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.768145710453077</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.768316584689968</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76860794590956805</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76860746854029904</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.76870615321912605</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.76896568589675895</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.76884425775569498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.76884597151689804</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76877371716073695</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76874782026088495</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.76887267868753795</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.76885319574094402</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.76889111286551204</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.76879074190946695</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.76888324302287003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.76853704513379995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.76858100857089695</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.76859064202958804</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.76838109671725097</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.76824256257676704</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.76816450350412901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.76812341444642396</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.76814791726516896</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76839682424154998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.76823891434727398</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.76820021165021501</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.76836469516983796</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.76845614035087695</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.76844151857658105</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.76844064064622397</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.76862540748997499</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.76880287769436795</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76900809411900595</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76918001143063497</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.76911993303943305</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.76919880799899099</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.76948116163624103</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.76954808720897205</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.76996296214804805</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.76971336039966698</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.770028465004855</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.77011363662567101</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.77024524372417302</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.77056209698247502</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.770503998700929</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.77043752269350496</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.77037124866917095</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.77027871021867</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.77037936100062698</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.77039127611450597</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.77035853483052097</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.77012709435129001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.76993572114623399</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.769790644133452</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.76965997066330705</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.76976554730736502</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.76962120269601098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCEC-4407-B0AE-F62D1B6570F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bernoulli NB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[6]bow_nb_updated_params!$C$102:$C$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[6]bow_nb_updated_params!$B$102:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.74381565287275797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74727187367409897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74985780897259702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75186523511733105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75459578323774301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75719864127109904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75794506754082702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75930012557096105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76010429685143099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76081028432742903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76203424140119802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76280782018480797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76317089699770801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76433063343121499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76443301140049102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76485559561276795</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76527114081444803</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76526388382424004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76560919918099202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76573169066234603</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76605525899345095</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.76635714372683295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.76610952808615695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76642285736355098</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76651610400734504</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76629347162818295</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.766450794921961</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76636279575700605</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76676057815101994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76664582879591003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76696500196322603</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76719194198404395</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76707074180812296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76742826903768402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76741842211731304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76749070311490597</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76760811554187303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76740683794189801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76728501419643202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76691317031121098</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76677814896599605</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76702228879864898</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76696444698080501</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.76699818104862805</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.76687817417084203</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76675442466191102</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76696807978789305</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.76708842253027198</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.76669651308731701</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.76674709450348899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.76694194900038903</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76693070018722198</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76715580447242604</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.76684410756286803</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.76645196445075803</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.765722236607978</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.76600243774251597</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.76568836019361697</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.76559303512329502</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.76567727620302894</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.76548903708448701</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.76561476101315096</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.76530615885282705</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.76514659779754102</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.76467969567405703</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.76479419893503597</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76489236018085704</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.764756515120532</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.764545699822064</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.76395971271916396</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.76373688582987997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.76354929576576502</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.76361131641726399</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.76327729184013504</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.76264362602189295</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76243197344650004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.762304000367513</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.76231697308860003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.76208079180125499</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.76173043199363799</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.761857180921929</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.76188725786384703</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.76179439845395003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.76152497716494605</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.76145174846822195</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.76080940503358896</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.76058345731411403</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.76005090818994403</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.75967322451351005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.75944393342487904</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.75914879626309095</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.75906560805307999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.75898536778995895</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.75886007238580799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.75895342096512597</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.75867883267774205</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.75848407734352097</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.75834818834267104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.75840830126898195</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.758138129946202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DCEC-4407-B0AE-F62D1B6570F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="946568544"/>
+        <c:axId val="1071082736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="946568544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071082736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1071082736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="946568544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>News Headlines dataset doc2vec LDA concatenation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[7]lda_n_topics!$C$23:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[7]lda_n_topics!$B$23:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.36343018604412E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.124093086124771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5441398664701004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14199998891207799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.146487745301319</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.163139628030296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.139986043912075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12902917242852799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7675454168885697E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13614366478810799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.106139016971262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C72-43F6-B4AB-4BABA63762C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1206162960"/>
+        <c:axId val="943629376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1206162960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Topics</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943629376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="943629376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1206162960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3412,7 +5662,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -3471,7 +5721,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -3646,7 +5896,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E427-4092-964A-38DC0CE32409}"/>
             </c:ext>
@@ -3744,7 +5994,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E427-4092-964A-38DC0CE32409}"/>
             </c:ext>
@@ -3840,7 +6090,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E427-4092-964A-38DC0CE32409}"/>
             </c:ext>
@@ -4148,12 +6398,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4430,7 +6680,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3567-4711-9C1A-B9E4DAC98F70}"/>
             </c:ext>
@@ -4528,7 +6778,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3567-4711-9C1A-B9E4DAC98F70}"/>
             </c:ext>
@@ -4836,12 +7086,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5026,7 +7276,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5085,7 +7335,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -5370,7 +7620,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F66-4EFC-9140-E3284CDDBF78}"/>
             </c:ext>
@@ -5468,7 +7718,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F66-4EFC-9140-E3284CDDBF78}"/>
             </c:ext>
@@ -5564,7 +7814,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F66-4EFC-9140-E3284CDDBF78}"/>
             </c:ext>
@@ -5877,12 +8127,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6155,7 +8405,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DB27-4A07-8854-214EB5B9B2DA}"/>
             </c:ext>
@@ -6253,7 +8503,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DB27-4A07-8854-214EB5B9B2DA}"/>
             </c:ext>
@@ -6561,12 +8811,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6605,7 +8855,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7899,7 +10148,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-22A3-4D26-8A6C-AEDFDAF3354D}"/>
             </c:ext>
@@ -9160,7 +11409,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-22A3-4D26-8A6C-AEDFDAF3354D}"/>
             </c:ext>
@@ -9216,7 +11465,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9334,7 +11582,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9409,7 +11656,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9477,7 +11723,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9521,7 +11767,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10815,7 +13060,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B1DD-49DB-B720-E97FF47408AD}"/>
             </c:ext>
@@ -12076,7 +14321,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B1DD-49DB-B720-E97FF47408AD}"/>
             </c:ext>
@@ -12146,7 +14391,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12264,7 +14508,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12345,7 +14588,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12413,7 +14655,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12466,7 +14708,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13151,7 +15392,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CB0-4BB3-8A4D-1F29772B145C}"/>
             </c:ext>
@@ -13812,7 +16053,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CB0-4BB3-8A4D-1F29772B145C}"/>
             </c:ext>
@@ -13852,7 +16093,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13946,7 +16186,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14027,7 +16266,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14095,7 +16333,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14148,7 +16386,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14833,7 +17070,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D17A-4115-AA5F-39B82686D10E}"/>
             </c:ext>
@@ -15494,7 +17731,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D17A-4115-AA5F-39B82686D10E}"/>
             </c:ext>
@@ -15559,7 +17796,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15677,7 +17913,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15758,7 +17993,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15946,6 +18180,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18356,6 +20670,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -22452,7 +25798,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22490,7 +25836,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22528,7 +25874,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22566,7 +25912,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22604,7 +25950,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22642,7 +25988,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BD39A60-1C38-4F67-B164-7E376A276F02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22680,7 +26026,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E77A59E9-D453-4E52-ADAD-536B0C2DEA0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22718,7 +26064,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0F4DCA5-FC01-4A8E-B323-5CB66CA24DC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22756,7 +26102,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67062166-22AA-4046-9E6D-517F53E6854C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22791,7 +26137,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -22823,7 +26175,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -22855,7 +26213,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -22867,6 +26231,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE76A0DF-237A-4E7D-93B6-1665AB44A6E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083F6E7F-D134-4A56-A940-912DB08DBDB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31362,6 +34802,1746 @@
           </cell>
           <cell r="I21">
             <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="bow_nb_updated_params"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.742079903370226</v>
+          </cell>
+          <cell r="C2">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.74541438845103503</v>
+          </cell>
+          <cell r="C3">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.74866702093622794</v>
+          </cell>
+          <cell r="C4">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.75078536636478999</v>
+          </cell>
+          <cell r="C5">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.75256645596014504</v>
+          </cell>
+          <cell r="C6">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.75442082750473605</v>
+          </cell>
+          <cell r="C7">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.75590611413020703</v>
+          </cell>
+          <cell r="C8">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.757417264659621</v>
+          </cell>
+          <cell r="C9">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0.75821120612515602</v>
+          </cell>
+          <cell r="C10">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.75941259838169295</v>
+          </cell>
+          <cell r="C11">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0.75999310474373105</v>
+          </cell>
+          <cell r="C12">
+            <v>0.11</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0.76044826423997203</v>
+          </cell>
+          <cell r="C13">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.760906578348438</v>
+          </cell>
+          <cell r="C14">
+            <v>0.13</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>0.76154999830609305</v>
+          </cell>
+          <cell r="C15">
+            <v>0.14000000000000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0.76209373736225605</v>
+          </cell>
+          <cell r="C16">
+            <v>0.15</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>0.76230963642462402</v>
+          </cell>
+          <cell r="C17">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>0.76274248514688703</v>
+          </cell>
+          <cell r="C18">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0.76288397994210799</v>
+          </cell>
+          <cell r="C19">
+            <v>0.18</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>0.76339848935913401</v>
+          </cell>
+          <cell r="C20">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>0.76419160210698001</v>
+          </cell>
+          <cell r="C21">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>0.76444313486278603</v>
+          </cell>
+          <cell r="C22">
+            <v>0.21</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>0.76482639474134995</v>
+          </cell>
+          <cell r="C23">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>0.765269657285783</v>
+          </cell>
+          <cell r="C24">
+            <v>0.23</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>0.76596019027030504</v>
+          </cell>
+          <cell r="C25">
+            <v>0.24</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>0.76624604793500195</v>
+          </cell>
+          <cell r="C26">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>0.76657687819503695</v>
+          </cell>
+          <cell r="C27">
+            <v>0.26</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>0.76696311286391095</v>
+          </cell>
+          <cell r="C28">
+            <v>0.27</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>0.767162845967294</v>
+          </cell>
+          <cell r="C29">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>0.76720729498825502</v>
+          </cell>
+          <cell r="C30">
+            <v>0.28999999999999998</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>0.767412376482838</v>
+          </cell>
+          <cell r="C31">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>0.76757504085153205</v>
+          </cell>
+          <cell r="C32">
+            <v>0.31</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>0.76777760980071597</v>
+          </cell>
+          <cell r="C33">
+            <v>0.32</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>0.76773738945624503</v>
+          </cell>
+          <cell r="C34">
+            <v>0.33</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>0.76781504670300105</v>
+          </cell>
+          <cell r="C35">
+            <v>0.34</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>0.76781544266982504</v>
+          </cell>
+          <cell r="C36">
+            <v>0.35</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>0.76784785496200902</v>
+          </cell>
+          <cell r="C37">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>0.76800368972502298</v>
+          </cell>
+          <cell r="C38">
+            <v>0.37</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>0.76823401768086597</v>
+          </cell>
+          <cell r="C39">
+            <v>0.38</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>0.76828703822701405</v>
+          </cell>
+          <cell r="C40">
+            <v>0.39</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>0.76820026721255896</v>
+          </cell>
+          <cell r="C41">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>0.76818035924988903</v>
+          </cell>
+          <cell r="C42">
+            <v>0.41</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>0.76846146029817097</v>
+          </cell>
+          <cell r="C43">
+            <v>0.42</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>0.76825289656884599</v>
+          </cell>
+          <cell r="C44">
+            <v>0.43</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>0.768145710453077</v>
+          </cell>
+          <cell r="C45">
+            <v>0.44</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>0.768316584689968</v>
+          </cell>
+          <cell r="C46">
+            <v>0.45</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>0.76860794590956805</v>
+          </cell>
+          <cell r="C47">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>0.76860746854029904</v>
+          </cell>
+          <cell r="C48">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>0.76870615321912605</v>
+          </cell>
+          <cell r="C49">
+            <v>0.48</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>0.76896568589675895</v>
+          </cell>
+          <cell r="C50">
+            <v>0.49</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>0.76884425775569498</v>
+          </cell>
+          <cell r="C51">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>0.76884597151689804</v>
+          </cell>
+          <cell r="C52">
+            <v>0.51</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>0.76877371716073695</v>
+          </cell>
+          <cell r="C53">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>0.76874782026088495</v>
+          </cell>
+          <cell r="C54">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>0.76887267868753795</v>
+          </cell>
+          <cell r="C55">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>0.76885319574094402</v>
+          </cell>
+          <cell r="C56">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>0.76889111286551204</v>
+          </cell>
+          <cell r="C57">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>0.76879074190946695</v>
+          </cell>
+          <cell r="C58">
+            <v>0.56999999999999995</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>0.76888324302287003</v>
+          </cell>
+          <cell r="C59">
+            <v>0.57999999999999996</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>0.76853704513379995</v>
+          </cell>
+          <cell r="C60">
+            <v>0.59</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>0.76858100857089695</v>
+          </cell>
+          <cell r="C61">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>0.76859064202958804</v>
+          </cell>
+          <cell r="C62">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>0.76838109671725097</v>
+          </cell>
+          <cell r="C63">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>0.76824256257676704</v>
+          </cell>
+          <cell r="C64">
+            <v>0.63</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>0.76816450350412901</v>
+          </cell>
+          <cell r="C65">
+            <v>0.64</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>0.76812341444642396</v>
+          </cell>
+          <cell r="C66">
+            <v>0.65</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>0.76814791726516896</v>
+          </cell>
+          <cell r="C67">
+            <v>0.66</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>0.76839682424154998</v>
+          </cell>
+          <cell r="C68">
+            <v>0.67</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>0.76823891434727398</v>
+          </cell>
+          <cell r="C69">
+            <v>0.68</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>0.76820021165021501</v>
+          </cell>
+          <cell r="C70">
+            <v>0.69</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>0.76836469516983796</v>
+          </cell>
+          <cell r="C71">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>0.76845614035087695</v>
+          </cell>
+          <cell r="C72">
+            <v>0.71</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>0.76844151857658105</v>
+          </cell>
+          <cell r="C73">
+            <v>0.72</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>0.76844064064622397</v>
+          </cell>
+          <cell r="C74">
+            <v>0.73</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>0.76862540748997499</v>
+          </cell>
+          <cell r="C75">
+            <v>0.74</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>0.76880287769436795</v>
+          </cell>
+          <cell r="C76">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>0.76900809411900595</v>
+          </cell>
+          <cell r="C77">
+            <v>0.76</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>0.76918001143063497</v>
+          </cell>
+          <cell r="C78">
+            <v>0.77</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>0.76911993303943305</v>
+          </cell>
+          <cell r="C79">
+            <v>0.78</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>0.76919880799899099</v>
+          </cell>
+          <cell r="C80">
+            <v>0.79</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>0.76948116163624103</v>
+          </cell>
+          <cell r="C81">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>0.76954808720897205</v>
+          </cell>
+          <cell r="C82">
+            <v>0.81</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>0.76996296214804805</v>
+          </cell>
+          <cell r="C83">
+            <v>0.82</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>0.76971336039966698</v>
+          </cell>
+          <cell r="C84">
+            <v>0.83</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>0.770028465004855</v>
+          </cell>
+          <cell r="C85">
+            <v>0.84</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>0.77011363662567101</v>
+          </cell>
+          <cell r="C86">
+            <v>0.85</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>0.77024524372417302</v>
+          </cell>
+          <cell r="C87">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>0.77056209698247502</v>
+          </cell>
+          <cell r="C88">
+            <v>0.87</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>0.770503998700929</v>
+          </cell>
+          <cell r="C89">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>0.77043752269350496</v>
+          </cell>
+          <cell r="C90">
+            <v>0.89</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>0.77037124866917095</v>
+          </cell>
+          <cell r="C91">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>0.77027871021867</v>
+          </cell>
+          <cell r="C92">
+            <v>0.91</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>0.77037936100062698</v>
+          </cell>
+          <cell r="C93">
+            <v>0.92</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>0.77039127611450597</v>
+          </cell>
+          <cell r="C94">
+            <v>0.93</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>0.77035853483052097</v>
+          </cell>
+          <cell r="C95">
+            <v>0.94</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>0.77012709435129001</v>
+          </cell>
+          <cell r="C96">
+            <v>0.95</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>0.76993572114623399</v>
+          </cell>
+          <cell r="C97">
+            <v>0.96</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>0.769790644133452</v>
+          </cell>
+          <cell r="C98">
+            <v>0.97</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>0.76965997066330705</v>
+          </cell>
+          <cell r="C99">
+            <v>0.98</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>0.76976554730736502</v>
+          </cell>
+          <cell r="C100">
+            <v>0.99</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>0.76962120269601098</v>
+          </cell>
+          <cell r="C101">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>0.74381565287275797</v>
+          </cell>
+          <cell r="C102">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>0.74727187367409897</v>
+          </cell>
+          <cell r="C103">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>0.74985780897259702</v>
+          </cell>
+          <cell r="C104">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>0.75186523511733105</v>
+          </cell>
+          <cell r="C105">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>0.75459578323774301</v>
+          </cell>
+          <cell r="C106">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>0.75719864127109904</v>
+          </cell>
+          <cell r="C107">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>0.75794506754082702</v>
+          </cell>
+          <cell r="C108">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>0.75930012557096105</v>
+          </cell>
+          <cell r="C109">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>0.76010429685143099</v>
+          </cell>
+          <cell r="C110">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>0.76081028432742903</v>
+          </cell>
+          <cell r="C111">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>0.76203424140119802</v>
+          </cell>
+          <cell r="C112">
+            <v>0.11</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>0.76280782018480797</v>
+          </cell>
+          <cell r="C113">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>0.76317089699770801</v>
+          </cell>
+          <cell r="C114">
+            <v>0.13</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>0.76433063343121499</v>
+          </cell>
+          <cell r="C115">
+            <v>0.14000000000000001</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>0.76443301140049102</v>
+          </cell>
+          <cell r="C116">
+            <v>0.15</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>0.76485559561276795</v>
+          </cell>
+          <cell r="C117">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>0.76527114081444803</v>
+          </cell>
+          <cell r="C118">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>0.76526388382424004</v>
+          </cell>
+          <cell r="C119">
+            <v>0.18</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>0.76560919918099202</v>
+          </cell>
+          <cell r="C120">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>0.76573169066234603</v>
+          </cell>
+          <cell r="C121">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>0.76605525899345095</v>
+          </cell>
+          <cell r="C122">
+            <v>0.21</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>0.76635714372683295</v>
+          </cell>
+          <cell r="C123">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>0.76610952808615695</v>
+          </cell>
+          <cell r="C124">
+            <v>0.23</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>0.76642285736355098</v>
+          </cell>
+          <cell r="C125">
+            <v>0.24</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>0.76651610400734504</v>
+          </cell>
+          <cell r="C126">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>0.76629347162818295</v>
+          </cell>
+          <cell r="C127">
+            <v>0.26</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>0.766450794921961</v>
+          </cell>
+          <cell r="C128">
+            <v>0.27</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>0.76636279575700605</v>
+          </cell>
+          <cell r="C129">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>0.76676057815101994</v>
+          </cell>
+          <cell r="C130">
+            <v>0.28999999999999998</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>0.76664582879591003</v>
+          </cell>
+          <cell r="C131">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>0.76696500196322603</v>
+          </cell>
+          <cell r="C132">
+            <v>0.31</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>0.76719194198404395</v>
+          </cell>
+          <cell r="C133">
+            <v>0.32</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>0.76707074180812296</v>
+          </cell>
+          <cell r="C134">
+            <v>0.33</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>0.76742826903768402</v>
+          </cell>
+          <cell r="C135">
+            <v>0.34</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>0.76741842211731304</v>
+          </cell>
+          <cell r="C136">
+            <v>0.35</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>0.76749070311490597</v>
+          </cell>
+          <cell r="C137">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>0.76760811554187303</v>
+          </cell>
+          <cell r="C138">
+            <v>0.37</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>0.76740683794189801</v>
+          </cell>
+          <cell r="C139">
+            <v>0.38</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>0.76728501419643202</v>
+          </cell>
+          <cell r="C140">
+            <v>0.39</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>0.76691317031121098</v>
+          </cell>
+          <cell r="C141">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>0.76677814896599605</v>
+          </cell>
+          <cell r="C142">
+            <v>0.41</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>0.76702228879864898</v>
+          </cell>
+          <cell r="C143">
+            <v>0.42</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>0.76696444698080501</v>
+          </cell>
+          <cell r="C144">
+            <v>0.43</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>0.76699818104862805</v>
+          </cell>
+          <cell r="C145">
+            <v>0.44</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>0.76687817417084203</v>
+          </cell>
+          <cell r="C146">
+            <v>0.45</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>0.76675442466191102</v>
+          </cell>
+          <cell r="C147">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>0.76696807978789305</v>
+          </cell>
+          <cell r="C148">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>0.76708842253027198</v>
+          </cell>
+          <cell r="C149">
+            <v>0.48</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>0.76669651308731701</v>
+          </cell>
+          <cell r="C150">
+            <v>0.49</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>0.76674709450348899</v>
+          </cell>
+          <cell r="C151">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>0.76694194900038903</v>
+          </cell>
+          <cell r="C152">
+            <v>0.51</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>0.76693070018722198</v>
+          </cell>
+          <cell r="C153">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>0.76715580447242604</v>
+          </cell>
+          <cell r="C154">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>0.76684410756286803</v>
+          </cell>
+          <cell r="C155">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>0.76645196445075803</v>
+          </cell>
+          <cell r="C156">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>0.765722236607978</v>
+          </cell>
+          <cell r="C157">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>0.76600243774251597</v>
+          </cell>
+          <cell r="C158">
+            <v>0.56999999999999995</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>0.76568836019361697</v>
+          </cell>
+          <cell r="C159">
+            <v>0.57999999999999996</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>0.76559303512329502</v>
+          </cell>
+          <cell r="C160">
+            <v>0.59</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>0.76567727620302894</v>
+          </cell>
+          <cell r="C161">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>0.76548903708448701</v>
+          </cell>
+          <cell r="C162">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>0.76561476101315096</v>
+          </cell>
+          <cell r="C163">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>0.76530615885282705</v>
+          </cell>
+          <cell r="C164">
+            <v>0.63</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>0.76514659779754102</v>
+          </cell>
+          <cell r="C165">
+            <v>0.64</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>0.76467969567405703</v>
+          </cell>
+          <cell r="C166">
+            <v>0.65</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>0.76479419893503597</v>
+          </cell>
+          <cell r="C167">
+            <v>0.66</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>0.76489236018085704</v>
+          </cell>
+          <cell r="C168">
+            <v>0.67</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>0.764756515120532</v>
+          </cell>
+          <cell r="C169">
+            <v>0.68</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>0.764545699822064</v>
+          </cell>
+          <cell r="C170">
+            <v>0.69</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>0.76395971271916396</v>
+          </cell>
+          <cell r="C171">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>0.76373688582987997</v>
+          </cell>
+          <cell r="C172">
+            <v>0.71</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>0.76354929576576502</v>
+          </cell>
+          <cell r="C173">
+            <v>0.72</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>0.76361131641726399</v>
+          </cell>
+          <cell r="C174">
+            <v>0.73</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>0.76327729184013504</v>
+          </cell>
+          <cell r="C175">
+            <v>0.74</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>0.76264362602189295</v>
+          </cell>
+          <cell r="C176">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>0.76243197344650004</v>
+          </cell>
+          <cell r="C177">
+            <v>0.76</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>0.762304000367513</v>
+          </cell>
+          <cell r="C178">
+            <v>0.77</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>0.76231697308860003</v>
+          </cell>
+          <cell r="C179">
+            <v>0.78</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>0.76208079180125499</v>
+          </cell>
+          <cell r="C180">
+            <v>0.79</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>0.76173043199363799</v>
+          </cell>
+          <cell r="C181">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>0.761857180921929</v>
+          </cell>
+          <cell r="C182">
+            <v>0.81</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183">
+            <v>0.76188725786384703</v>
+          </cell>
+          <cell r="C183">
+            <v>0.82</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184">
+            <v>0.76179439845395003</v>
+          </cell>
+          <cell r="C184">
+            <v>0.83</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185">
+            <v>0.76152497716494605</v>
+          </cell>
+          <cell r="C185">
+            <v>0.84</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186">
+            <v>0.76145174846822195</v>
+          </cell>
+          <cell r="C186">
+            <v>0.85</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187">
+            <v>0.76080940503358896</v>
+          </cell>
+          <cell r="C187">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188">
+            <v>0.76058345731411403</v>
+          </cell>
+          <cell r="C188">
+            <v>0.87</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189">
+            <v>0.76005090818994403</v>
+          </cell>
+          <cell r="C189">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190">
+            <v>0.75967322451351005</v>
+          </cell>
+          <cell r="C190">
+            <v>0.89</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191">
+            <v>0.75944393342487904</v>
+          </cell>
+          <cell r="C191">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>0.75914879626309095</v>
+          </cell>
+          <cell r="C192">
+            <v>0.91</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>0.75906560805307999</v>
+          </cell>
+          <cell r="C193">
+            <v>0.92</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>0.75898536778995895</v>
+          </cell>
+          <cell r="C194">
+            <v>0.93</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>0.75886007238580799</v>
+          </cell>
+          <cell r="C195">
+            <v>0.94</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>0.75895342096512597</v>
+          </cell>
+          <cell r="C196">
+            <v>0.95</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>0.75867883267774205</v>
+          </cell>
+          <cell r="C197">
+            <v>0.96</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>0.75848407734352097</v>
+          </cell>
+          <cell r="C198">
+            <v>0.97</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
+            <v>0.75834818834267104</v>
+          </cell>
+          <cell r="C199">
+            <v>0.98</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200">
+            <v>0.75840830126898195</v>
+          </cell>
+          <cell r="C200">
+            <v>0.99</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201">
+            <v>0.758138129946202</v>
+          </cell>
+          <cell r="C201">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="lda_n_topics"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="23">
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+          <cell r="C23">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+          <cell r="C24">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>0</v>
+          </cell>
+          <cell r="C25">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>5.36343018604412E-2</v>
+          </cell>
+          <cell r="C26">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>0.124093086124771</v>
+          </cell>
+          <cell r="C27">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>8.5441398664701004E-2</v>
+          </cell>
+          <cell r="C28">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>0.14199998891207799</v>
+          </cell>
+          <cell r="C29">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>0.146487745301319</v>
+          </cell>
+          <cell r="C30">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>0.163139628030296</v>
+          </cell>
+          <cell r="C31">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>0.139986043912075</v>
+          </cell>
+          <cell r="C32">
+            <v>250</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>0.12902917242852799</v>
+          </cell>
+          <cell r="C33">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>8.7675454168885697E-2</v>
+          </cell>
+          <cell r="C34">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>0.13614366478810799</v>
+          </cell>
+          <cell r="C35">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>0.106139016971262</v>
+          </cell>
+          <cell r="C36">
+            <v>450</v>
           </cell>
         </row>
       </sheetData>
@@ -31632,11 +36812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="N274" sqref="N274"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="P318" sqref="P318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
